--- a/biology/Botanique/Muriella/Muriella.xlsx
+++ b/biology/Botanique/Muriella/Muriella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muriella est un genre d’algues vertes d’eau douce de la famille des Chlorellaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Muriella a été nommé en l’honneur de la phycologue Muriel Bristol.[réf. souhaitée]
 </t>
@@ -542,16 +556,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 février 2021) :
 Muriella aurantiaca Vischer ≡ Pseudomuriella aurantiaca (W.Vischer) N.Hanagata
 Muriella australis J.Phillipson
 Muriella decolor Vischer
 Muriella magna F.E.Fritsch &amp; R.P.John
 Muriella terrestris J.B.Petersen (espèce type)
 Muriella zofingiensis (Dönz) Hindák ≡ Chromochloris zofingiensis (Dönz) Fucíková &amp; L.A.Lewis
-Selon World Register of Marine Species                               (13 février 2021)[2] :
+Selon World Register of Marine Species                               (13 février 2021) :
 Muriella australis J.Phillipson, 1935
 Muriella decolor Vischer, 1936
 Muriella magna F.E.Fritsch &amp; R.P.John, 1942
